--- a/conf/modbus.xlsx
+++ b/conf/modbus.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\Desktop\tools\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AQSC\WG2020\modbus_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100B68F0-81A4-4CFC-A927-0675A08C6545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9448E6-6D9D-479F-8238-58132875B073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="2475" windowWidth="13155" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="slave1-3" sheetId="2" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="112">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -46,10 +46,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
     <t>数据ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>有功点度量</t>
+  </si>
+  <si>
+    <t>无功电度量</t>
+  </si>
+  <si>
+    <t>负功电度量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>正功电度量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>modbus_1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -58,288 +75,305 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>UINT16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功点度量</t>
-  </si>
-  <si>
-    <t>无功电度量</t>
-  </si>
-  <si>
-    <t>INT16</t>
-  </si>
-  <si>
     <t>modbus_3</t>
   </si>
   <si>
-    <t>INT17</t>
-  </si>
-  <si>
     <t>modbus_4</t>
   </si>
   <si>
-    <t>INT18</t>
-  </si>
-  <si>
     <t>modbus_5</t>
   </si>
   <si>
-    <t>INT19</t>
-  </si>
-  <si>
     <t>modbus_6</t>
   </si>
   <si>
-    <t>INT20</t>
-  </si>
-  <si>
     <t>modbus_7</t>
   </si>
   <si>
-    <t>INT21</t>
-  </si>
-  <si>
     <t>modbus_8</t>
   </si>
   <si>
-    <t>INT22</t>
-  </si>
-  <si>
     <t>modbus_9</t>
   </si>
   <si>
-    <t>INT23</t>
-  </si>
-  <si>
     <t>modbus_10</t>
   </si>
   <si>
-    <t>INT24</t>
-  </si>
-  <si>
     <t>modbus_11</t>
   </si>
   <si>
-    <t>INT25</t>
-  </si>
-  <si>
     <t>modbus_12</t>
   </si>
   <si>
-    <t>INT26</t>
-  </si>
-  <si>
     <t>modbus_13</t>
   </si>
   <si>
-    <t>INT27</t>
-  </si>
-  <si>
     <t>modbus_14</t>
   </si>
   <si>
-    <t>INT28</t>
-  </si>
-  <si>
     <t>modbus_15</t>
   </si>
   <si>
-    <t>INT29</t>
-  </si>
-  <si>
     <t>modbus_16</t>
   </si>
   <si>
-    <t>INT30</t>
-  </si>
-  <si>
     <t>modbus_17</t>
   </si>
   <si>
-    <t>INT31</t>
-  </si>
-  <si>
     <t>modbus_18</t>
   </si>
   <si>
-    <t>INT32</t>
-  </si>
-  <si>
     <t>modbus_19</t>
   </si>
   <si>
-    <t>INT33</t>
-  </si>
-  <si>
     <t>modbus_20</t>
   </si>
   <si>
-    <t>INT34</t>
-  </si>
-  <si>
     <t>modbus_21</t>
   </si>
   <si>
-    <t>INT35</t>
-  </si>
-  <si>
     <t>modbus_22</t>
   </si>
   <si>
-    <t>INT36</t>
-  </si>
-  <si>
     <t>modbus_23</t>
   </si>
   <si>
-    <t>INT37</t>
-  </si>
-  <si>
     <t>modbus_24</t>
   </si>
   <si>
-    <t>INT38</t>
-  </si>
-  <si>
     <t>modbus_25</t>
   </si>
   <si>
-    <t>INT39</t>
-  </si>
-  <si>
     <t>modbus_26</t>
   </si>
   <si>
-    <t>INT40</t>
-  </si>
-  <si>
     <t>modbus_27</t>
   </si>
   <si>
-    <t>INT41</t>
-  </si>
-  <si>
     <t>modbus_28</t>
   </si>
   <si>
-    <t>INT42</t>
-  </si>
-  <si>
     <t>modbus_29</t>
   </si>
   <si>
-    <t>INT43</t>
-  </si>
-  <si>
     <t>modbus_30</t>
   </si>
   <si>
-    <t>INT44</t>
-  </si>
-  <si>
     <t>modbus_31</t>
   </si>
   <si>
-    <t>INT45</t>
-  </si>
-  <si>
     <t>modbus_32</t>
   </si>
   <si>
-    <t>INT46</t>
-  </si>
-  <si>
     <t>modbus_33</t>
   </si>
   <si>
-    <t>INT47</t>
-  </si>
-  <si>
     <t>modbus_34</t>
   </si>
   <si>
-    <t>INT48</t>
-  </si>
-  <si>
     <t>modbus_35</t>
   </si>
   <si>
-    <t>INT49</t>
-  </si>
-  <si>
     <t>modbus_36</t>
   </si>
   <si>
-    <t>INT50</t>
-  </si>
-  <si>
     <t>modbus_37</t>
   </si>
   <si>
-    <t>INT51</t>
-  </si>
-  <si>
     <t>modbus_38</t>
   </si>
   <si>
-    <t>INT52</t>
-  </si>
-  <si>
     <t>modbus_39</t>
   </si>
   <si>
-    <t>INT53</t>
-  </si>
-  <si>
     <t>modbus_40</t>
   </si>
   <si>
-    <t>INT54</t>
-  </si>
-  <si>
     <t>modbus_41</t>
   </si>
   <si>
-    <t>INT55</t>
-  </si>
-  <si>
     <t>modbus_42</t>
   </si>
   <si>
-    <t>INT56</t>
-  </si>
-  <si>
     <t>modbus_43</t>
   </si>
   <si>
-    <t>INT57</t>
-  </si>
-  <si>
     <t>modbus_44</t>
   </si>
   <si>
-    <t>INT58</t>
-  </si>
-  <si>
     <t>modbus_45</t>
   </si>
   <si>
-    <t>INT59</t>
-  </si>
-  <si>
     <t>modbus_46</t>
   </si>
   <si>
-    <t>INT60</t>
+    <t>modbus_47</t>
+  </si>
+  <si>
+    <t>modbus_48</t>
+  </si>
+  <si>
+    <t>modbus_49</t>
+  </si>
+  <si>
+    <t>modbus_50</t>
+  </si>
+  <si>
+    <t>modbus_51</t>
+  </si>
+  <si>
+    <t>modbus_52</t>
+  </si>
+  <si>
+    <t>modbus_53</t>
+  </si>
+  <si>
+    <t>modbus_54</t>
+  </si>
+  <si>
+    <t>modbus_55</t>
+  </si>
+  <si>
+    <t>modbus_56</t>
+  </si>
+  <si>
+    <t>modbus_57</t>
+  </si>
+  <si>
+    <t>modbus_58</t>
+  </si>
+  <si>
+    <t>modbus_59</t>
+  </si>
+  <si>
+    <t>modbus_60</t>
+  </si>
+  <si>
+    <t>modbus_61</t>
+  </si>
+  <si>
+    <t>modbus_62</t>
+  </si>
+  <si>
+    <t>modbus_63</t>
+  </si>
+  <si>
+    <t>modbus_64</t>
+  </si>
+  <si>
+    <t>modbus_65</t>
+  </si>
+  <si>
+    <t>modbus_66</t>
+  </si>
+  <si>
+    <t>modbus_67</t>
+  </si>
+  <si>
+    <t>modbus_68</t>
+  </si>
+  <si>
+    <t>modbus_69</t>
+  </si>
+  <si>
+    <t>modbus_70</t>
+  </si>
+  <si>
+    <t>modbus_71</t>
+  </si>
+  <si>
+    <t>modbus_72</t>
+  </si>
+  <si>
+    <t>modbus_73</t>
+  </si>
+  <si>
+    <t>modbus_74</t>
+  </si>
+  <si>
+    <t>modbus_75</t>
+  </si>
+  <si>
+    <t>modbus_76</t>
+  </si>
+  <si>
+    <t>modbus_77</t>
+  </si>
+  <si>
+    <t>modbus_78</t>
+  </si>
+  <si>
+    <t>modbus_79</t>
+  </si>
+  <si>
+    <t>modbus_80</t>
+  </si>
+  <si>
+    <t>modbus_81</t>
+  </si>
+  <si>
+    <t>modbus_82</t>
+  </si>
+  <si>
+    <t>modbus_83</t>
+  </si>
+  <si>
+    <t>modbus_84</t>
+  </si>
+  <si>
+    <t>modbus_85</t>
+  </si>
+  <si>
+    <t>modbus_86</t>
+  </si>
+  <si>
+    <t>modbus_87</t>
+  </si>
+  <si>
+    <t>modbus_88</t>
+  </si>
+  <si>
+    <t>modbus_89</t>
+  </si>
+  <si>
+    <t>modbus_90</t>
+  </si>
+  <si>
+    <t>modbus_91</t>
+  </si>
+  <si>
+    <t>modbus_92</t>
+  </si>
+  <si>
+    <t>modbus_93</t>
+  </si>
+  <si>
+    <t>modbus_94</t>
+  </si>
+  <si>
+    <t>modbus_95</t>
+  </si>
+  <si>
+    <t>modbus_96</t>
+  </si>
+  <si>
+    <t>modbus_97</t>
+  </si>
+  <si>
+    <t>modbus_98</t>
+  </si>
+  <si>
+    <t>modbus_99</t>
+  </si>
+  <si>
+    <t>modbus_100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,14 +551,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,14 +738,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -847,19 +869,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -989,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,20 +1008,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1393,16 +1393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
@@ -1411,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1449,18 +1449,18 @@
         <v>40001</v>
       </c>
       <c r="F2" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>3412</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1469,21 +1469,21 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>40003</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3412</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1492,12 +1492,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>40005</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3412</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1515,21 +1515,21 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F5" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>40007</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3412</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1538,21 +1538,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>40009</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1561,21 +1561,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>40011</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1584,21 +1584,21 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>40013</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1607,21 +1607,21 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>40015</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1630,21 +1630,21 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>40017</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1653,21 +1653,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>40019</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1676,21 +1676,21 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
+        <v>40021</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1699,21 +1699,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>40023</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1722,21 +1722,21 @@
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F14" s="3">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>40025</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1745,21 +1745,21 @@
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F15" s="3">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>40027</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1768,21 +1768,21 @@
         <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F16" s="3">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+        <v>40029</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1791,21 +1791,21 @@
         <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F17" s="3">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>40031</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1814,21 +1814,21 @@
         <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F18" s="3">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>40033</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1837,21 +1837,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F19" s="3">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>40035</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1860,21 +1860,21 @@
         <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F20" s="3">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
+        <v>40037</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1883,21 +1883,21 @@
         <v>3</v>
       </c>
       <c r="E21" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F21" s="3">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>40039</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1906,21 +1906,21 @@
         <v>3</v>
       </c>
       <c r="E22" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>40041</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1929,21 +1929,21 @@
         <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F23" s="3">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
+        <v>40043</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1952,21 +1952,21 @@
         <v>3</v>
       </c>
       <c r="E24" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F24" s="3">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
+        <v>40045</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1975,21 +1975,21 @@
         <v>3</v>
       </c>
       <c r="E25" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F25" s="3">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>40047</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1998,21 +1998,21 @@
         <v>3</v>
       </c>
       <c r="E26" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F26" s="3">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
+        <v>40049</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2021,21 +2021,21 @@
         <v>3</v>
       </c>
       <c r="E27" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F27" s="3">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
+        <v>40051</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2044,21 +2044,21 @@
         <v>3</v>
       </c>
       <c r="E28" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F28" s="3">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
+        <v>40053</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2067,21 +2067,21 @@
         <v>3</v>
       </c>
       <c r="E29" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F29" s="3">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>11</v>
+        <v>40055</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -2090,21 +2090,21 @@
         <v>3</v>
       </c>
       <c r="E30" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F30" s="3">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>11</v>
+        <v>40057</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2113,21 +2113,21 @@
         <v>3</v>
       </c>
       <c r="E31" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F31" s="3">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>11</v>
+        <v>40059</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2136,21 +2136,21 @@
         <v>3</v>
       </c>
       <c r="E32" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F32" s="3">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
+        <v>40061</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2159,21 +2159,21 @@
         <v>3</v>
       </c>
       <c r="E33" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F33" s="3">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>11</v>
+        <v>40063</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2182,21 +2182,21 @@
         <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F34" s="3">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
+        <v>40065</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -2205,21 +2205,21 @@
         <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F35" s="3">
-        <v>12</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
+        <v>40067</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2228,21 +2228,21 @@
         <v>3</v>
       </c>
       <c r="E36" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F36" s="3">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
+        <v>40069</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -2251,21 +2251,21 @@
         <v>3</v>
       </c>
       <c r="E37" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F37" s="3">
-        <v>12</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>40071</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -2274,21 +2274,21 @@
         <v>3</v>
       </c>
       <c r="E38" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F38" s="3">
-        <v>12</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
+        <v>40073</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -2297,21 +2297,21 @@
         <v>3</v>
       </c>
       <c r="E39" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F39" s="3">
-        <v>12</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>40075</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -2320,21 +2320,21 @@
         <v>3</v>
       </c>
       <c r="E40" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F40" s="3">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
+        <v>40077</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -2343,21 +2343,21 @@
         <v>3</v>
       </c>
       <c r="E41" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F41" s="3">
-        <v>12</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>40079</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -2366,21 +2366,21 @@
         <v>3</v>
       </c>
       <c r="E42" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F42" s="3">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>40081</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -2389,21 +2389,21 @@
         <v>3</v>
       </c>
       <c r="E43" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F43" s="3">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>11</v>
+        <v>40083</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -2412,21 +2412,21 @@
         <v>3</v>
       </c>
       <c r="E44" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F44" s="3">
-        <v>12</v>
-      </c>
-      <c r="G44" s="7" t="s">
+        <v>40085</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -2435,21 +2435,21 @@
         <v>3</v>
       </c>
       <c r="E45" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F45" s="3">
-        <v>12</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>11</v>
+        <v>40087</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -2458,92 +2458,1279 @@
         <v>3</v>
       </c>
       <c r="E46" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F46" s="3">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>11</v>
+        <v>40089</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40091</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>40093</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>40095</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40097</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>40099</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
+        <v>40101</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>40103</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>40105</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>40107</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2">
+        <v>40109</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>40111</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>40113</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>40115</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
+        <v>40117</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>40119</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>40121</v>
+      </c>
+      <c r="F62" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>40123</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>40125</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
+        <v>40127</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
+        <v>40129</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>40131</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>40133</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
+        <v>40135</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>40137</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>40139</v>
+      </c>
+      <c r="F71" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>40141</v>
+      </c>
+      <c r="F72" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2">
+        <v>40143</v>
+      </c>
+      <c r="F73" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2">
+        <v>40145</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2">
+        <v>40147</v>
+      </c>
+      <c r="F75" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
+        <v>40149</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <v>40151</v>
+      </c>
+      <c r="F77" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2">
+        <v>40153</v>
+      </c>
+      <c r="F78" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2">
+        <v>40155</v>
+      </c>
+      <c r="F79" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2">
+        <v>40157</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2">
+        <v>40159</v>
+      </c>
+      <c r="F81" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2">
+        <v>40161</v>
+      </c>
+      <c r="F82" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2">
+        <v>40163</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2">
+        <v>40165</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2">
+        <v>40167</v>
+      </c>
+      <c r="F85" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2">
+        <v>40169</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2">
+        <v>40171</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2">
+        <v>40173</v>
+      </c>
+      <c r="F88" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2">
+        <v>40175</v>
+      </c>
+      <c r="F89" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2">
-        <v>40002</v>
-      </c>
-      <c r="F47" s="3">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
+        <v>40177</v>
+      </c>
+      <c r="F90" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2">
+        <v>40179</v>
+      </c>
+      <c r="F91" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2">
+        <v>40181</v>
+      </c>
+      <c r="F92" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="6"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="6"/>
-      <c r="E54" s="5"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="6"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="E56" s="4"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="6"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="6"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2">
+        <v>40183</v>
+      </c>
+      <c r="F93" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2">
+        <v>40185</v>
+      </c>
+      <c r="F94" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2">
+        <v>40187</v>
+      </c>
+      <c r="F95" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>40189</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2">
+        <v>40191</v>
+      </c>
+      <c r="F97" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2">
+        <v>40193</v>
+      </c>
+      <c r="F98" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>40195</v>
+      </c>
+      <c r="F99" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2">
+        <v>40197</v>
+      </c>
+      <c r="F100" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>40199</v>
+      </c>
+      <c r="F101" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2551,8 +3738,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"0,1,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{133889F4-CBB3-42AE-9315-7957A00775CA}">
-      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE,UINT16"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf/modbus.xlsx
+++ b/conf/modbus.xlsx
@@ -5,30 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\Desktop\modbus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\Desktop\MT\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D5829-EAC5-4DBE-95C9-F50C9AA76B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA6120-0A0D-471B-A25A-4334BA50669B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register1-3" sheetId="2" r:id="rId1"/>
     <sheet name="Register1-4" sheetId="3" r:id="rId2"/>
-    <sheet name="Register2-3" sheetId="5" r:id="rId3"/>
-    <sheet name="Register2-4" sheetId="4" r:id="rId4"/>
+    <sheet name="Register2-3" sheetId="4" r:id="rId3"/>
+    <sheet name="Register2-4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>从地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>功能码</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -45,34 +49,46 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>有功点度量</t>
+    <t>数据ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>modbus_1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>从站地址</t>
+    <t>modbus_2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>标签名称</t>
+    <t>modbus_3</t>
+  </si>
+  <si>
+    <t>modbus_4</t>
+  </si>
+  <si>
+    <t>modbus_5</t>
+  </si>
+  <si>
+    <t>UINT16</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>modbus_2</t>
-  </si>
-  <si>
-    <t>modbus_3</t>
-  </si>
-  <si>
-    <t>modbus_4</t>
-  </si>
-  <si>
-    <t>modbus_5</t>
+    <t>有功点度量</t>
+  </si>
+  <si>
+    <t>无功电度量</t>
+  </si>
+  <si>
+    <t>正功电度量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>负功电度量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT16</t>
   </si>
   <si>
     <t>modbus_6</t>
@@ -88,74 +104,89 @@
   </si>
   <si>
     <t>modbus_10</t>
+  </si>
+  <si>
+    <t>modbus_12</t>
+  </si>
+  <si>
+    <t>modbus_13</t>
+  </si>
+  <si>
+    <t>modbus_14</t>
+  </si>
+  <si>
+    <t>modbus_15</t>
+  </si>
+  <si>
+    <t>modbus_16</t>
+  </si>
+  <si>
+    <t>modbus_17</t>
+  </si>
+  <si>
+    <t>modbus_18</t>
+  </si>
+  <si>
+    <t>modbus_19</t>
+  </si>
+  <si>
+    <t>modbus_20</t>
+  </si>
+  <si>
+    <t>UINT32</t>
+  </si>
+  <si>
+    <t>modbus_22</t>
+  </si>
+  <si>
+    <t>modbus_23</t>
+  </si>
+  <si>
+    <t>modbus_24</t>
+  </si>
+  <si>
+    <t>modbus_25</t>
+  </si>
+  <si>
+    <t>modbus_26</t>
+  </si>
+  <si>
+    <t>modbus_27</t>
+  </si>
+  <si>
+    <t>modbus_28</t>
+  </si>
+  <si>
+    <t>modbus_29</t>
+  </si>
+  <si>
+    <t>modbus_30</t>
+  </si>
+  <si>
+    <t>modbus_32</t>
+  </si>
+  <si>
+    <t>modbus_33</t>
+  </si>
+  <si>
+    <t>modbus_34</t>
   </si>
   <si>
     <t>modbus_11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>modbus_12</t>
-  </si>
-  <si>
-    <t>modbus_13</t>
-  </si>
-  <si>
-    <t>modbus_14</t>
-  </si>
-  <si>
-    <t>modbus_15</t>
-  </si>
-  <si>
-    <t>modbus_16</t>
-  </si>
-  <si>
-    <t>modbus_17</t>
-  </si>
-  <si>
-    <t>modbus_18</t>
-  </si>
-  <si>
-    <t>modbus_19</t>
-  </si>
-  <si>
     <t>modbus_21</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>modbus_22</t>
-  </si>
-  <si>
-    <t>modbus_23</t>
-  </si>
-  <si>
-    <t>modbus_24</t>
-  </si>
-  <si>
-    <t>modbus_25</t>
-  </si>
-  <si>
-    <t>modbus_26</t>
-  </si>
-  <si>
-    <t>modbus_27</t>
-  </si>
-  <si>
-    <t>modbus_28</t>
+    <t>FLOAT</t>
   </si>
   <si>
     <t>modbus_31</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>modbus_32</t>
-  </si>
-  <si>
-    <t>modbus_33</t>
-  </si>
-  <si>
-    <t>modbus_34</t>
-  </si>
-  <si>
     <t>modbus_35</t>
   </si>
   <si>
@@ -163,13 +194,22 @@
   </si>
   <si>
     <t>modbus_37</t>
+  </si>
+  <si>
+    <t>modbus_38</t>
+  </si>
+  <si>
+    <t>modbus_39</t>
+  </si>
+  <si>
+    <t>modbus_40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +387,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +580,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -665,6 +717,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +868,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1186,15 +1263,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
@@ -1204,25 +1281,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1230,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1242,18 +1319,18 @@
         <v>40001</v>
       </c>
       <c r="F2" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1262,21 +1339,21 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>40003</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>40002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1285,21 +1362,21 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>40005</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>40003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1308,21 +1385,21 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>40007</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>40004</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1331,21 +1408,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>40009</v>
+        <v>40005</v>
       </c>
       <c r="F6" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1354,21 +1431,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>40011</v>
+        <v>40006</v>
       </c>
       <c r="F7" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1377,21 +1454,21 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>40013</v>
+        <v>40007</v>
       </c>
       <c r="F8" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1400,21 +1477,21 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>40015</v>
+        <v>40008</v>
       </c>
       <c r="F9" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1423,21 +1500,21 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>40017</v>
+        <v>40009</v>
       </c>
       <c r="F10" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1446,284 +1523,206 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>40019</v>
+        <v>40010</v>
       </c>
       <c r="F11" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="3"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="3"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="3"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="3"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="3"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="3"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="3"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="3"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="3"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="3"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="3"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="3"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="3"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="3"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="3"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="3"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="3"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="3"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G101" s="3"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1731,8 +1730,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"0,1,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{133889F4-CBB3-42AE-9315-7957A00775CA}">
+      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE,UINT16"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1741,16 +1740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EFAF30-ECFC-45F1-8952-B773BF1D85B6}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED0977B-7EA1-4440-9962-5C337A91DB5A}">
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
@@ -1760,33 +1759,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1795,21 +1794,21 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>40001</v>
+        <v>400011</v>
       </c>
       <c r="F2" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1818,21 +1817,21 @@
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>40003</v>
+        <v>400012</v>
       </c>
       <c r="F3" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1841,21 +1840,21 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>40005</v>
+        <v>400013</v>
       </c>
       <c r="F4" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1864,21 +1863,21 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>40007</v>
+        <v>400014</v>
       </c>
       <c r="F5" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1887,21 +1886,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>40009</v>
+        <v>400015</v>
       </c>
       <c r="F6" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1910,21 +1909,21 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>40011</v>
+        <v>400016</v>
       </c>
       <c r="F7" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1933,21 +1932,21 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>40013</v>
+        <v>400017</v>
       </c>
       <c r="F8" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1956,21 +1955,21 @@
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>40015</v>
+        <v>400018</v>
       </c>
       <c r="F9" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1979,295 +1978,237 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>40017</v>
+        <v>400019</v>
       </c>
       <c r="F10" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>400020</v>
+      </c>
+      <c r="F11" s="2">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="3"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="3"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="3"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="3"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="3"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="3"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="3"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="3"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="3"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="3"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="3"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="3"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="3"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="3"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="3"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="3"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="3"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="3"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G101" s="3"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{D4743390-658C-4946-9692-F973411E0D71}">
-      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{845CF05A-1E8F-48B9-B655-130171752C97}">
+      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE,UINT16"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{5E51FFDC-B7CF-4362-AB24-D52688C00414}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{E6184135-3316-453E-B4EE-BC62BCEF5229}">
       <formula1>"0,1,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2277,16 +2218,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D536B1C-DFAB-42EF-9658-0D248BFD47E7}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA1822F-3AAF-4400-8ADE-2A34BCCE4B2E}">
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
@@ -2296,33 +2237,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2331,21 +2272,21 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>40001</v>
+        <v>400011</v>
       </c>
       <c r="F2" s="2">
         <v>3412</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2354,21 +2295,21 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>40003</v>
+        <v>400013</v>
       </c>
       <c r="F3" s="2">
         <v>3412</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -2377,21 +2318,21 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>40005</v>
+        <v>400015</v>
       </c>
       <c r="F4" s="2">
         <v>3412</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -2400,21 +2341,21 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>40007</v>
+        <v>400017</v>
       </c>
       <c r="F5" s="2">
         <v>3412</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -2423,21 +2364,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>40009</v>
+        <v>400019</v>
       </c>
       <c r="F6" s="2">
         <v>3412</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2446,21 +2387,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>40011</v>
+        <v>400021</v>
       </c>
       <c r="F7" s="2">
         <v>3412</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -2469,21 +2410,21 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>40013</v>
+        <v>400023</v>
       </c>
       <c r="F8" s="2">
         <v>3412</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -2492,299 +2433,261 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>40015</v>
+        <v>400025</v>
       </c>
       <c r="F9" s="2">
         <v>3412</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>400027</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>400029</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="3"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="3"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="3"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="3"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="3"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="3"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="3"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="3"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="3"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="3"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="3"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="3"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="3"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="3"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="3"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="3"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="3"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="3"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G101" s="3"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{EB3F0FBA-F3D1-400D-A91E-35F967FCCAD2}">
-      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{97C21CAA-BFF3-4469-B963-0324187326A0}">
+      <formula1>"0,1,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{3B336B72-9B14-4277-B098-3667D11A901D}">
-      <formula1>"0,1,3,4"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{31AB0F5A-B32A-45C0-8382-65EB381F3A89}">
+      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE,UINT16"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2793,16 +2696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ACA65D-7001-48B6-BEB1-1FDED22664C6}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1561A6C9-AD33-441A-ACF2-3E87DD2A50EB}">
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
@@ -2812,33 +2715,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2847,21 +2750,21 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>40001</v>
+        <v>40031</v>
       </c>
       <c r="F2" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2870,21 +2773,21 @@
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>40003</v>
+        <v>40033</v>
       </c>
       <c r="F3" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -2893,21 +2796,21 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>40005</v>
+        <v>40035</v>
       </c>
       <c r="F4" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -2916,21 +2819,21 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>40007</v>
+        <v>40037</v>
       </c>
       <c r="F5" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -2939,21 +2842,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>40009</v>
+        <v>40039</v>
       </c>
       <c r="F6" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2962,21 +2865,21 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>40011</v>
+        <v>40041</v>
       </c>
       <c r="F7" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -2985,302 +2888,284 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>40013</v>
+        <v>40043</v>
       </c>
       <c r="F8" s="2">
-        <v>3412</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
+        <v>1234</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>40045</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40047</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>40049</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="3"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="3"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="3"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="3"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="3"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="3"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="3"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="3"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="3"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="3"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="3"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="3"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="3"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="3"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="3"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="3"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="3"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="3"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G101" s="3"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{A6124483-89F4-4B5D-A8B0-1CBE0C79AEDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{6557F136-EC20-4854-9713-0F381C47816F}">
       <formula1>"0,1,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{18C7B9A4-FC8C-443C-882D-223CE8435D48}">
-      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{5FF7DA19-0B3B-4438-ACC8-297C353F99D0}">
+      <formula1>"INT16,UINT32,INT32,FLOAT,DOUBLE,UINT16"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf/modbus.xlsx
+++ b/conf/modbus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\Desktop\MT\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littl\Desktop\OMDC\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA6120-0A0D-471B-A25A-4334BA50669B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621D959-1E24-42BF-B950-D69193D72DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="255">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -172,37 +172,637 @@
     <t>modbus_34</t>
   </si>
   <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>modbus_35</t>
+  </si>
+  <si>
+    <t>modbus_36</t>
+  </si>
+  <si>
+    <t>modbus_37</t>
+  </si>
+  <si>
+    <t>modbus_38</t>
+  </si>
+  <si>
+    <t>modbus_39</t>
+  </si>
+  <si>
+    <t>modbus_40</t>
+  </si>
+  <si>
     <t>modbus_11</t>
+  </si>
+  <si>
+    <t>modbus_21</t>
+  </si>
+  <si>
+    <t>UINT33</t>
+  </si>
+  <si>
+    <t>UINT34</t>
+  </si>
+  <si>
+    <t>UINT35</t>
+  </si>
+  <si>
+    <t>UINT36</t>
+  </si>
+  <si>
+    <t>modbus_31</t>
+  </si>
+  <si>
+    <t>UINT37</t>
+  </si>
+  <si>
+    <t>UINT38</t>
+  </si>
+  <si>
+    <t>UINT39</t>
+  </si>
+  <si>
+    <t>UINT40</t>
+  </si>
+  <si>
+    <t>UINT41</t>
+  </si>
+  <si>
+    <t>UINT42</t>
+  </si>
+  <si>
+    <t>UINT43</t>
+  </si>
+  <si>
+    <t>UINT44</t>
+  </si>
+  <si>
+    <t>UINT45</t>
+  </si>
+  <si>
+    <t>UINT46</t>
+  </si>
+  <si>
+    <t>modbus_41</t>
+  </si>
+  <si>
+    <t>UINT47</t>
+  </si>
+  <si>
+    <t>modbus_42</t>
+  </si>
+  <si>
+    <t>UINT48</t>
+  </si>
+  <si>
+    <t>modbus_43</t>
+  </si>
+  <si>
+    <t>UINT49</t>
+  </si>
+  <si>
+    <t>modbus_44</t>
+  </si>
+  <si>
+    <t>UINT50</t>
+  </si>
+  <si>
+    <t>modbus_45</t>
+  </si>
+  <si>
+    <t>UINT51</t>
+  </si>
+  <si>
+    <t>modbus_46</t>
+  </si>
+  <si>
+    <t>UINT52</t>
+  </si>
+  <si>
+    <t>modbus_47</t>
+  </si>
+  <si>
+    <t>UINT53</t>
+  </si>
+  <si>
+    <t>modbus_48</t>
+  </si>
+  <si>
+    <t>UINT54</t>
+  </si>
+  <si>
+    <t>modbus_49</t>
+  </si>
+  <si>
+    <t>UINT55</t>
+  </si>
+  <si>
+    <t>modbus_50</t>
+  </si>
+  <si>
+    <t>UINT56</t>
+  </si>
+  <si>
+    <t>UINT57</t>
+  </si>
+  <si>
+    <t>UINT58</t>
+  </si>
+  <si>
+    <t>UINT59</t>
+  </si>
+  <si>
+    <t>UINT60</t>
+  </si>
+  <si>
+    <t>UINT61</t>
+  </si>
+  <si>
+    <t>UINT62</t>
+  </si>
+  <si>
+    <t>UINT63</t>
+  </si>
+  <si>
+    <t>UINT64</t>
+  </si>
+  <si>
+    <t>UINT65</t>
+  </si>
+  <si>
+    <t>modbus_51</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>modbus_21</t>
+    <t>modbus_52</t>
+  </si>
+  <si>
+    <t>modbus_53</t>
+  </si>
+  <si>
+    <t>modbus_54</t>
+  </si>
+  <si>
+    <t>modbus_55</t>
+  </si>
+  <si>
+    <t>modbus_56</t>
+  </si>
+  <si>
+    <t>modbus_57</t>
+  </si>
+  <si>
+    <t>modbus_58</t>
+  </si>
+  <si>
+    <t>modbus_59</t>
+  </si>
+  <si>
+    <t>modbus_60</t>
+  </si>
+  <si>
+    <t>modbus_61</t>
+  </si>
+  <si>
+    <t>modbus_62</t>
+  </si>
+  <si>
+    <t>modbus_63</t>
+  </si>
+  <si>
+    <t>modbus_64</t>
+  </si>
+  <si>
+    <t>modbus_65</t>
+  </si>
+  <si>
+    <t>modbus_66</t>
+  </si>
+  <si>
+    <t>modbus_67</t>
+  </si>
+  <si>
+    <t>modbus_68</t>
+  </si>
+  <si>
+    <t>modbus_69</t>
+  </si>
+  <si>
+    <t>modbus_70</t>
+  </si>
+  <si>
+    <t>modbus_71</t>
+  </si>
+  <si>
+    <t>modbus_72</t>
+  </si>
+  <si>
+    <t>modbus_73</t>
+  </si>
+  <si>
+    <t>modbus_74</t>
+  </si>
+  <si>
+    <t>modbus_75</t>
+  </si>
+  <si>
+    <t>modbus_76</t>
+  </si>
+  <si>
+    <t>modbus_77</t>
+  </si>
+  <si>
+    <t>modbus_78</t>
+  </si>
+  <si>
+    <t>modbus_79</t>
+  </si>
+  <si>
+    <t>modbus_80</t>
+  </si>
+  <si>
+    <t>modbus_81</t>
+  </si>
+  <si>
+    <t>modbus_82</t>
+  </si>
+  <si>
+    <t>modbus_83</t>
+  </si>
+  <si>
+    <t>modbus_84</t>
+  </si>
+  <si>
+    <t>modbus_85</t>
+  </si>
+  <si>
+    <t>modbus_86</t>
+  </si>
+  <si>
+    <t>modbus_87</t>
+  </si>
+  <si>
+    <t>modbus_88</t>
+  </si>
+  <si>
+    <t>modbus_89</t>
+  </si>
+  <si>
+    <t>modbus_90</t>
+  </si>
+  <si>
+    <t>modbus_91</t>
+  </si>
+  <si>
+    <t>modbus_92</t>
+  </si>
+  <si>
+    <t>modbus_93</t>
+  </si>
+  <si>
+    <t>modbus_94</t>
+  </si>
+  <si>
+    <t>modbus_95</t>
+  </si>
+  <si>
+    <t>modbus_96</t>
+  </si>
+  <si>
+    <t>modbus_97</t>
+  </si>
+  <si>
+    <t>modbus_98</t>
+  </si>
+  <si>
+    <t>modbus_99</t>
+  </si>
+  <si>
+    <t>modbus_100</t>
+  </si>
+  <si>
+    <t>modbus_101</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>modbus_31</t>
+    <t>modbus_102</t>
+  </si>
+  <si>
+    <t>modbus_103</t>
+  </si>
+  <si>
+    <t>modbus_104</t>
+  </si>
+  <si>
+    <t>modbus_105</t>
+  </si>
+  <si>
+    <t>modbus_106</t>
+  </si>
+  <si>
+    <t>modbus_107</t>
+  </si>
+  <si>
+    <t>modbus_108</t>
+  </si>
+  <si>
+    <t>modbus_109</t>
+  </si>
+  <si>
+    <t>modbus_110</t>
+  </si>
+  <si>
+    <t>modbus_111</t>
+  </si>
+  <si>
+    <t>modbus_112</t>
+  </si>
+  <si>
+    <t>modbus_113</t>
+  </si>
+  <si>
+    <t>modbus_114</t>
+  </si>
+  <si>
+    <t>modbus_115</t>
+  </si>
+  <si>
+    <t>modbus_116</t>
+  </si>
+  <si>
+    <t>modbus_117</t>
+  </si>
+  <si>
+    <t>modbus_118</t>
+  </si>
+  <si>
+    <t>modbus_119</t>
+  </si>
+  <si>
+    <t>modbus_120</t>
+  </si>
+  <si>
+    <t>modbus_121</t>
+  </si>
+  <si>
+    <t>modbus_122</t>
+  </si>
+  <si>
+    <t>modbus_123</t>
+  </si>
+  <si>
+    <t>modbus_124</t>
+  </si>
+  <si>
+    <t>modbus_125</t>
+  </si>
+  <si>
+    <t>modbus_126</t>
+  </si>
+  <si>
+    <t>modbus_127</t>
+  </si>
+  <si>
+    <t>modbus_128</t>
+  </si>
+  <si>
+    <t>modbus_129</t>
+  </si>
+  <si>
+    <t>modbus_130</t>
+  </si>
+  <si>
+    <t>modbus_131</t>
+  </si>
+  <si>
+    <t>modbus_132</t>
+  </si>
+  <si>
+    <t>modbus_133</t>
+  </si>
+  <si>
+    <t>modbus_134</t>
+  </si>
+  <si>
+    <t>modbus_135</t>
+  </si>
+  <si>
+    <t>modbus_136</t>
+  </si>
+  <si>
+    <t>modbus_137</t>
+  </si>
+  <si>
+    <t>modbus_138</t>
+  </si>
+  <si>
+    <t>modbus_139</t>
+  </si>
+  <si>
+    <t>modbus_140</t>
+  </si>
+  <si>
+    <t>modbus_141</t>
+  </si>
+  <si>
+    <t>modbus_142</t>
+  </si>
+  <si>
+    <t>modbus_143</t>
+  </si>
+  <si>
+    <t>modbus_144</t>
+  </si>
+  <si>
+    <t>modbus_145</t>
+  </si>
+  <si>
+    <t>modbus_146</t>
+  </si>
+  <si>
+    <t>modbus_147</t>
+  </si>
+  <si>
+    <t>modbus_148</t>
+  </si>
+  <si>
+    <t>modbus_149</t>
+  </si>
+  <si>
+    <t>modbus_150</t>
+  </si>
+  <si>
+    <t>modbus_151</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>modbus_35</t>
-  </si>
-  <si>
-    <t>modbus_36</t>
-  </si>
-  <si>
-    <t>modbus_37</t>
-  </si>
-  <si>
-    <t>modbus_38</t>
-  </si>
-  <si>
-    <t>modbus_39</t>
-  </si>
-  <si>
-    <t>modbus_40</t>
+    <t>modbus_152</t>
+  </si>
+  <si>
+    <t>modbus_153</t>
+  </si>
+  <si>
+    <t>modbus_154</t>
+  </si>
+  <si>
+    <t>modbus_155</t>
+  </si>
+  <si>
+    <t>modbus_156</t>
+  </si>
+  <si>
+    <t>modbus_157</t>
+  </si>
+  <si>
+    <t>modbus_158</t>
+  </si>
+  <si>
+    <t>modbus_159</t>
+  </si>
+  <si>
+    <t>modbus_160</t>
+  </si>
+  <si>
+    <t>modbus_161</t>
+  </si>
+  <si>
+    <t>modbus_162</t>
+  </si>
+  <si>
+    <t>modbus_163</t>
+  </si>
+  <si>
+    <t>modbus_164</t>
+  </si>
+  <si>
+    <t>modbus_165</t>
+  </si>
+  <si>
+    <t>modbus_166</t>
+  </si>
+  <si>
+    <t>modbus_167</t>
+  </si>
+  <si>
+    <t>modbus_168</t>
+  </si>
+  <si>
+    <t>modbus_169</t>
+  </si>
+  <si>
+    <t>modbus_170</t>
+  </si>
+  <si>
+    <t>modbus_171</t>
+  </si>
+  <si>
+    <t>modbus_172</t>
+  </si>
+  <si>
+    <t>modbus_173</t>
+  </si>
+  <si>
+    <t>modbus_174</t>
+  </si>
+  <si>
+    <t>modbus_175</t>
+  </si>
+  <si>
+    <t>modbus_176</t>
+  </si>
+  <si>
+    <t>modbus_177</t>
+  </si>
+  <si>
+    <t>modbus_178</t>
+  </si>
+  <si>
+    <t>modbus_179</t>
+  </si>
+  <si>
+    <t>modbus_180</t>
+  </si>
+  <si>
+    <t>modbus_181</t>
+  </si>
+  <si>
+    <t>modbus_182</t>
+  </si>
+  <si>
+    <t>modbus_183</t>
+  </si>
+  <si>
+    <t>modbus_184</t>
+  </si>
+  <si>
+    <t>modbus_185</t>
+  </si>
+  <si>
+    <t>modbus_186</t>
+  </si>
+  <si>
+    <t>modbus_187</t>
+  </si>
+  <si>
+    <t>modbus_188</t>
+  </si>
+  <si>
+    <t>modbus_189</t>
+  </si>
+  <si>
+    <t>modbus_190</t>
+  </si>
+  <si>
+    <t>modbus_191</t>
+  </si>
+  <si>
+    <t>modbus_192</t>
+  </si>
+  <si>
+    <t>modbus_193</t>
+  </si>
+  <si>
+    <t>modbus_194</t>
+  </si>
+  <si>
+    <t>UINT66</t>
+  </si>
+  <si>
+    <t>modbus_195</t>
+  </si>
+  <si>
+    <t>UINT67</t>
+  </si>
+  <si>
+    <t>modbus_196</t>
+  </si>
+  <si>
+    <t>UINT68</t>
+  </si>
+  <si>
+    <t>modbus_197</t>
+  </si>
+  <si>
+    <t>UINT69</t>
+  </si>
+  <si>
+    <t>modbus_198</t>
+  </si>
+  <si>
+    <t>UINT70</t>
+  </si>
+  <si>
+    <t>modbus_199</t>
+  </si>
+  <si>
+    <t>UINT71</t>
+  </si>
+  <si>
+    <t>modbus_200</t>
+  </si>
+  <si>
+    <t>UINT72</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1533,163 +2133,924 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40011</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="7"/>
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40012</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40013</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="7"/>
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40014</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40015</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40016</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40017</v>
+      </c>
+      <c r="F18" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40018</v>
+      </c>
+      <c r="F19" s="2">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40019</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40020</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40021</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40022</v>
+      </c>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40023</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40024</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40025</v>
+      </c>
+      <c r="F26" s="2">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40026</v>
+      </c>
+      <c r="F27" s="2">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>40027</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>40028</v>
+      </c>
+      <c r="F29" s="2">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40029</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40030</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>40031</v>
+      </c>
+      <c r="F32" s="2">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>40032</v>
+      </c>
+      <c r="F33" s="2">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>40033</v>
+      </c>
+      <c r="F34" s="2">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="7"/>
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>40034</v>
+      </c>
+      <c r="F35" s="2">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>40035</v>
+      </c>
+      <c r="F36" s="2">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>40036</v>
+      </c>
+      <c r="F37" s="2">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>40037</v>
+      </c>
+      <c r="F38" s="2">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>40038</v>
+      </c>
+      <c r="F39" s="2">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40039</v>
+      </c>
+      <c r="F40" s="2">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>40040</v>
+      </c>
+      <c r="F41" s="2">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>40041</v>
+      </c>
+      <c r="F42" s="2">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>40042</v>
+      </c>
+      <c r="F43" s="2">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40043</v>
+      </c>
+      <c r="F44" s="2">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>40044</v>
+      </c>
+      <c r="F45" s="2">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>40045</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40046</v>
+      </c>
+      <c r="F47" s="2">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>40047</v>
+      </c>
+      <c r="F48" s="2">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>40048</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40049</v>
+      </c>
+      <c r="F50" s="2">
+        <v>12</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>40050</v>
+      </c>
+      <c r="F51" s="2">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
@@ -1743,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED0977B-7EA1-4440-9962-5C337A91DB5A}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,7 +3143,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1794,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>400011</v>
+        <v>40051</v>
       </c>
       <c r="F2" s="2">
         <v>21</v>
@@ -1805,7 +3166,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1817,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>400012</v>
+        <v>40052</v>
       </c>
       <c r="F3" s="2">
         <v>21</v>
@@ -1828,7 +3189,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -1840,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>400013</v>
+        <v>40053</v>
       </c>
       <c r="F4" s="2">
         <v>21</v>
@@ -1851,7 +3212,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1863,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>400014</v>
+        <v>40054</v>
       </c>
       <c r="F5" s="2">
         <v>21</v>
@@ -1874,7 +3235,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1886,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>400015</v>
+        <v>40055</v>
       </c>
       <c r="F6" s="2">
         <v>21</v>
@@ -1897,7 +3258,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1909,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>400016</v>
+        <v>40056</v>
       </c>
       <c r="F7" s="2">
         <v>21</v>
@@ -1920,7 +3281,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1932,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>400017</v>
+        <v>40057</v>
       </c>
       <c r="F8" s="2">
         <v>21</v>
@@ -1943,7 +3304,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1955,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>400018</v>
+        <v>40058</v>
       </c>
       <c r="F9" s="2">
         <v>21</v>
@@ -1966,7 +3327,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1978,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>400019</v>
+        <v>40059</v>
       </c>
       <c r="F10" s="2">
         <v>21</v>
@@ -1989,7 +3350,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -2001,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>400020</v>
+        <v>40060</v>
       </c>
       <c r="F11" s="2">
         <v>21</v>
@@ -2011,163 +3372,924 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40061</v>
+      </c>
+      <c r="F12" s="2">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="7"/>
+      <c r="A13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40062</v>
+      </c>
+      <c r="F13" s="2">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40063</v>
+      </c>
+      <c r="F14" s="2">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="7"/>
+      <c r="A15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40064</v>
+      </c>
+      <c r="F15" s="2">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40065</v>
+      </c>
+      <c r="F16" s="2">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40066</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40067</v>
+      </c>
+      <c r="F18" s="2">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40068</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40069</v>
+      </c>
+      <c r="F20" s="2">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40070</v>
+      </c>
+      <c r="F21" s="2">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40071</v>
+      </c>
+      <c r="F22" s="2">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40072</v>
+      </c>
+      <c r="F23" s="2">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40073</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40074</v>
+      </c>
+      <c r="F25" s="2">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40075</v>
+      </c>
+      <c r="F26" s="2">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40076</v>
+      </c>
+      <c r="F27" s="2">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>40077</v>
+      </c>
+      <c r="F28" s="2">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>40078</v>
+      </c>
+      <c r="F29" s="2">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40079</v>
+      </c>
+      <c r="F30" s="2">
+        <v>21</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40080</v>
+      </c>
+      <c r="F31" s="2">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>40081</v>
+      </c>
+      <c r="F32" s="2">
+        <v>21</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>40082</v>
+      </c>
+      <c r="F33" s="2">
+        <v>21</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>40083</v>
+      </c>
+      <c r="F34" s="2">
+        <v>21</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="7"/>
+      <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>40084</v>
+      </c>
+      <c r="F35" s="2">
+        <v>21</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>40085</v>
+      </c>
+      <c r="F36" s="2">
+        <v>21</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>40086</v>
+      </c>
+      <c r="F37" s="2">
+        <v>21</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>40087</v>
+      </c>
+      <c r="F38" s="2">
+        <v>21</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>40088</v>
+      </c>
+      <c r="F39" s="2">
+        <v>21</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40089</v>
+      </c>
+      <c r="F40" s="2">
+        <v>21</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>40090</v>
+      </c>
+      <c r="F41" s="2">
+        <v>21</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>40091</v>
+      </c>
+      <c r="F42" s="2">
+        <v>21</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>40092</v>
+      </c>
+      <c r="F43" s="2">
+        <v>21</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40093</v>
+      </c>
+      <c r="F44" s="2">
+        <v>21</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2">
+        <v>40094</v>
+      </c>
+      <c r="F45" s="2">
+        <v>21</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>40095</v>
+      </c>
+      <c r="F46" s="2">
+        <v>21</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40096</v>
+      </c>
+      <c r="F47" s="2">
+        <v>21</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>40097</v>
+      </c>
+      <c r="F48" s="2">
+        <v>21</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>40098</v>
+      </c>
+      <c r="F49" s="2">
+        <v>21</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40099</v>
+      </c>
+      <c r="F50" s="2">
+        <v>21</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>40100</v>
+      </c>
+      <c r="F51" s="2">
+        <v>21</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
@@ -2221,8 +4343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA1822F-3AAF-4400-8ADE-2A34BCCE4B2E}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2260,10 +4382,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2272,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>400011</v>
+        <v>40101</v>
       </c>
       <c r="F2" s="2">
         <v>3412</v>
@@ -2283,10 +4405,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2295,7 +4417,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>400013</v>
+        <v>40103</v>
       </c>
       <c r="F3" s="2">
         <v>3412</v>
@@ -2306,10 +4428,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -2318,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>400015</v>
+        <v>40105</v>
       </c>
       <c r="F4" s="2">
         <v>3412</v>
@@ -2329,10 +4451,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -2341,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>400017</v>
+        <v>40107</v>
       </c>
       <c r="F5" s="2">
         <v>3412</v>
@@ -2352,10 +4474,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -2364,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>400019</v>
+        <v>40109</v>
       </c>
       <c r="F6" s="2">
         <v>3412</v>
@@ -2375,10 +4497,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -2387,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>400021</v>
+        <v>40111</v>
       </c>
       <c r="F7" s="2">
         <v>3412</v>
@@ -2398,10 +4520,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -2410,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>400023</v>
+        <v>40113</v>
       </c>
       <c r="F8" s="2">
         <v>3412</v>
@@ -2421,10 +4543,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -2433,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>400025</v>
+        <v>40115</v>
       </c>
       <c r="F9" s="2">
         <v>3412</v>
@@ -2444,10 +4566,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -2456,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>400027</v>
+        <v>40117</v>
       </c>
       <c r="F10" s="2">
         <v>3412</v>
@@ -2467,10 +4589,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2479,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>400029</v>
+        <v>40119</v>
       </c>
       <c r="F11" s="2">
         <v>3412</v>
@@ -2489,168 +4611,927 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40121</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="7"/>
+      <c r="A13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40123</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40125</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="7"/>
+      <c r="A15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40127</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40129</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40131</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40133</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40135</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40137</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40139</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40141</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40143</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40145</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40147</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40149</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40151</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>40153</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>40155</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40157</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40159</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>40161</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>40163</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>40165</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="7"/>
+      <c r="A35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>40167</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>40169</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>40171</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>40173</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>40175</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40177</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>40179</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>40181</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>40183</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40185</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>40187</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>40189</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40191</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>40193</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>40195</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40197</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>40199</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3412</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
@@ -2700,7 +5581,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2738,7 +5619,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -2750,7 +5631,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>40031</v>
+        <v>40121</v>
       </c>
       <c r="F2" s="2">
         <v>1234</v>
@@ -2761,7 +5642,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -2773,7 +5654,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>40033</v>
+        <v>40123</v>
       </c>
       <c r="F3" s="2">
         <v>1234</v>
@@ -2784,7 +5665,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -2796,7 +5677,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>40035</v>
+        <v>40125</v>
       </c>
       <c r="F4" s="2">
         <v>1234</v>
@@ -2807,7 +5688,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -2819,7 +5700,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>40037</v>
+        <v>40127</v>
       </c>
       <c r="F5" s="2">
         <v>1234</v>
@@ -2830,7 +5711,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
@@ -2842,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>40039</v>
+        <v>40129</v>
       </c>
       <c r="F6" s="2">
         <v>1234</v>
@@ -2853,7 +5734,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -2865,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>40041</v>
+        <v>40131</v>
       </c>
       <c r="F7" s="2">
         <v>1234</v>
@@ -2876,7 +5757,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -2888,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>40043</v>
+        <v>40133</v>
       </c>
       <c r="F8" s="2">
         <v>1234</v>
@@ -2899,7 +5780,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -2911,7 +5792,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>40045</v>
+        <v>40135</v>
       </c>
       <c r="F9" s="2">
         <v>1234</v>
@@ -2922,7 +5803,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
@@ -2934,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>40047</v>
+        <v>40137</v>
       </c>
       <c r="F10" s="2">
         <v>1234</v>
@@ -2945,7 +5826,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
@@ -2957,7 +5838,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>40049</v>
+        <v>40139</v>
       </c>
       <c r="F11" s="2">
         <v>1234</v>
@@ -2967,163 +5848,924 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>40141</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G13" s="7"/>
+      <c r="A13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40143</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40145</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="7"/>
+      <c r="A15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40147</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40149</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40151</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40153</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40155</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>40157</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40159</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>40161</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>40163</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40165</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40167</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40169</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>40171</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>40173</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>40175</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40177</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40179</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>40181</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>40183</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>40185</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G35" s="7"/>
+      <c r="A35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>40187</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>40189</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>40191</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>40193</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>40195</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40197</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>40199</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>40201</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>40203</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>40205</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2">
+        <v>40207</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>40209</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40211</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>40213</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
+      <c r="A49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>40215</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40217</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>40219</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
